--- a/P0010/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0010/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0010\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA3F8E3-8D9B-46DA-8A6F-EE5BDBC0C949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{FAA3F8E3-8D9B-46DA-8A6F-EE5BDBC0C949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{905C35BE-8AAE-47F4-9FD7-D631B255DF9B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,60 +36,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
-  <si>
-    <t>Código de proyecto</t>
-  </si>
-  <si>
-    <t>Código de producto</t>
-  </si>
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
-    <t>Directorio</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Autor 1</t>
-  </si>
-  <si>
-    <t>Autor 2</t>
-  </si>
-  <si>
-    <t>Autor 3</t>
-  </si>
-  <si>
-    <t>Autor 4</t>
-  </si>
-  <si>
-    <t>Autor 5</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo de producto</t>
-  </si>
-  <si>
-    <t>Formato</t>
-  </si>
-  <si>
-    <t>Resumen</t>
-  </si>
-  <si>
-    <t>Contiene Anexos</t>
-  </si>
-  <si>
-    <t>Anexos</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Palabras Clave</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="86">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>FORMATO</t>
+  </si>
+  <si>
+    <t>RESUMEN</t>
+  </si>
+  <si>
+    <t>CONTIENE ANEXOS</t>
+  </si>
+  <si>
+    <t>ANEXOS</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
   </si>
   <si>
     <t>P0010</t>
@@ -104,7 +104,10 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0010/02_PRODUCTOS/PRODUCTO 01-DOCUMENTO DE ESTUDIOS/01_ESTUDIOS V4.pdf</t>
   </si>
   <si>
-    <t>Geografía Urbana</t>
+    <t>Geografía Urbana SAS</t>
+  </si>
+  <si>
+    <t>Fondo Adaptación</t>
   </si>
   <si>
     <t>NA</t>
@@ -128,7 +131,7 @@
     <t>El documento es importante, en tanto, contiene los resultados de los estudios realizados en los 11 municipios de la Mojana hasta el año 2014 respecto a lo ambiental, la gestión del riesgo, el ordenamiento territorial y los planes de desarrollo implementados hasta entonces. Contiene información como modelos conceptuales que constituyen escenarios prospectivos para la Mojana.</t>
   </si>
   <si>
-    <t>Ordenamiento territorial, Desarrollo sostenible, Análisis de relevancia, Políticas públicas, Gestión del riesgo, Diagnóstico socioeconómico, Metodología de evaluación, Estudios académicos, Consultoría, Documentos institucionales, Indicadores, Participación comunitaria, Coordinación interinstitucional, Medio ambiente, Cambio climático, Planificación regional, Estrategias de desarrollo, Impacto ambiental, Sostenibilidad, Intervención social, Análisis de documentos, Estudios de caso, Variables socioeconómicas, Contexto regional, Cooperación técnica, Informes de investigación, Diagnóstico ambiental, Soberanía alimentaria, Escenarios prospectivos, Ayapel, Achí, Caimito, Majagual, Magangué, Nechí, Guaranda, San Jacinto del Cauca, San Benito de Abad, San marcos, Sucre, Antioquia, Bolívar, Córdoba</t>
+    <t>Ordenamiento territorial, desarrollo sostenible, análisis de relevancia, políticas públicas, gestión del riesgo, diagnóstico socioeconómico, metodología de evaluación, estudios académicos, consultoría, documentos institucionales, indicadores, participación comunitaria, coordinación interinstitucional, medio ambiente, cambio climático, planificación regional, estrategias de desarrollo, impacto ambiental, sostenibilidad, intervención social, análisis de documentos, estudios de caso, variables socioeconómicas, contexto regional, cooperación técnica, informes de investigación, diagnóstico ambiental, soberanía alimentaria, escenarios prospectivos, Ayapel, Achí, Caimito, Majagual, Magangué, Nechí, Guaranda, San Jacinto del Cauca, San Benito de Abad, San marcos, Sucre, Antioquia, Bolívar, Córdoba</t>
   </si>
   <si>
     <t>PR0002</t>
@@ -149,7 +152,7 @@
     <t>La información recopilada y analizada en el documento es altamente pertinente para los actores locales y regionales, ya que ofrece un marco normativo y recomendaciones que pueden guiar la formulación de políticas y estrategias de desarrollo sostenible. Se puede encontrar información relevante para variables relacionadas con la caracterización de actores, de formas de vida, y de ordenamiento territorial, especialmente en los capítulos 3, 4 y 5</t>
   </si>
   <si>
-    <t>Normatividad, Gestión del riesgo, Asuntos ambientales, Planes de desarrollo, Patrimonio cultural, Desarrollo económico, Inversión, Ayapel, Achí, Caimito, Majagual, Magangué, Nechí, Guaranda, San Jacinto del Cauca, San Benito de Abad, San marcos, Sucre, Antioquia, Bolívar, Córdoba</t>
+    <t>Normatividad, gestión del riesgo, asuntos ambientales, planes de desarrollo, patrimonio cultural, desarrollo económico, inversión, Ayapel, Achí, Caimito, Majagual, Magangué, Nechí, Guaranda, San Jacinto del Cauca, San Benito de Abad, San marcos, Sucre, Antioquia, Bolívar, Córdoba</t>
   </si>
   <si>
     <t>PR0003</t>
@@ -170,15 +173,15 @@
     <t>Si</t>
   </si>
   <si>
-    <t>INFORMACION GENERAL_x000D_
-MATRIZ DE COHERENCIA JURIDICA_x000D_
+    <t>INFORMACION GENERAL
+MATRIZ DE COHERENCIA JURIDICA
 MATRIZ GENERAL DOCUMENTOS</t>
   </si>
   <si>
     <t>El documento contiene información relevante para la toma de desciciones, además contiene información pertinente sobre zonas urbanas amenazadas por inundaciones en los 11 municipios de la Mojana. Los anexos estan contenidos en la carpeta "s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0010/02_PRODUCTOS\PRODUCTO 03-MATRIZ COMPARATIVA/MATRICES"</t>
   </si>
   <si>
-    <t>Ayapel, Achí, Caimito, Majagual, Magangué, Nechí, Guaranda, San Jacinto del Cauca, San Benito de Abad, San marcos, Sucre, Antioquia, Bolívar, Córdoba, Ordenamiento territorial, Gestión del riesgo, Medio ambiente, Políticas públicas, Corporaciones Autónomas Regionales, Normatividad, Conflictos normativos, Planificación territorial, Evaluación de planes, Uso, acceso y tenencia de la tierra, Matriz comparativa</t>
+    <t>Ayapel, Achí, Caimito, Majagual, Magangué, Nechí, Guaranda, San Jacinto del Cauca, San Benito de Abad, San Marcos, Sucre, Antioquia, Bolívar, Córdoba, ordenamiento territorial, gestión del riesgo, medio ambiente, políticas públicas, corporaciones autónomas regionales, normatividad, conflictos normativos, planificación territorial, evaluación de planes, uso, acceso y tenencia de la tierra, matriz comparativa</t>
   </si>
   <si>
     <t>PR0004</t>
@@ -196,10 +199,10 @@
     <t xml:space="preserve">El documento se estructura en tres secciones principales: una introducción que describe el contexto de la región, un análisis de las conclusiones derivadas del trabajo de campo y, finalmente, un conjunto de recomendaciones específicas. El estudio se basa en un enfoque cualitativo que incluye la revisión de casi 600 documentos entre normas y estudios de la región. De los cuales se puede destacar que, más de un tercio de estos tienen una temática ambiental. Más de la mitad de esta documentación son normas que conciernen de una u otra manera la zona y cuyo impacto es difícil de medir, en tanto muchas de ellas son letra muerta. Es decir, no son tenidas en cuenta en el funcionamiento día a día en la región. La gran mayoría de los estudios se han realizado en la década pasada, con un pico de interés significativo hacia el comienzo de esta. En este periodo, ha existido una clara preocupación estatal por la región. Casi la totalidad de los estudios son elaborados por entidades públicas o académicas y contiene un importante valor técnico. De estos estudios, la mitad se encargan de elaborar diagnósticos sobre la zona y la otra mitad establecen recomendaciones y lineamientos concretos para la acción en el terreno. Este trabajo ha generado cierta reacción negativa en los pobladores, ya que consideran que se han hecho demasiados estudios y ha habido poca inversión para solucionar los problemas locales. </t>
   </si>
   <si>
-    <t>el documento ofrece un análisis exhaustivo de la situación de la región de La Mojana y proporciona recomendaciones prácticas para mejorar la gestión del riesgo y la sostenibilidad ambiental, contribuyendo así al desarrollo integral de los municipios involucrados.</t>
-  </si>
-  <si>
-    <t>Ayapel, Achí, Caimito, Majagual, Magangué, Nechí, Guaranda, San Jacinto del Cauca, San Benito de Abad, San marcos, Sucre, Antioquia, Bolívar, Córdoba, Ordenamiento territorial, Gestión del riesgo, Desarrollo sostenible, Planificación ambiental, Acceso a la información, Normativas, Diagnóstico territorial, Dimensión social del riesgo; Conflictos socioambientales</t>
+    <t>El documento ofrece un análisis exhaustivo de la situación de la región de La Mojana y proporciona recomendaciones prácticas para mejorar la gestión del riesgo y la sostenibilidad ambiental, contribuyendo así al desarrollo integral de los municipios involucrados.</t>
+  </si>
+  <si>
+    <t>Ayapel, Achí, Caimito, Majagual, Magangué, Nechí, Guaranda, San Jacinto del Cauca, San Benito de Abad, San marcos, Sucre, Antioquia, Bolívar, Córdoba, ordenamiento territorial, gestión del riesgo, desarrollo sostenible, planificación ambiental, acceso a la información, normativas, diagnóstico territorial, dimensión social del riesgo, conflictos socioambientales</t>
   </si>
   <si>
     <t>PR0005</t>
@@ -220,7 +223,7 @@
     <t>El documento presenta una estructura clara y organizada, lo que facilita la navegación y comprensión de los diferentes actos administrativos y cláusulas. Sin embargo, existen secciones que parecen estar incompletas o que contienen marcadores de posición (por ejemplo, "XXXX") que indican que se requiere información adicional</t>
   </si>
   <si>
-    <t>Actos administrativos, Gestión del riesgo, Ordenamiento territorial, Desarrollo sostenible, Medio ambiente, Planificación territorial, políticas públicas, municipios, asociación de municipios, Contrato Evaluación de impacto, Resolución, Acuerdo</t>
+    <t>Actos administrativos, gestión del riesgo, ordenamiento territorial, desarrollo sostenible, medio ambiente, planificación territorial, políticas públicas, municipios, asociación de municipios, contrato evaluación de impacto, resolución, acuerdo</t>
   </si>
   <si>
     <t>PR0006</t>
@@ -245,7 +248,7 @@
     <t>Este es el diccionario de la geodatabase que contiene todos los archivos SIG del estudio realizado en el marco del proyecto Análisis POT. De los archivos que se encontraron en la Geodatabase se realizan fichas generales.</t>
   </si>
   <si>
-    <t>Ordenamiento territorial, Información geográfica, Conflictos normativos, Análisis espacial, Gestión de riesgos</t>
+    <t>Ordenamiento territorial, información geográfica, conflictos normativos, análisis espacial, gestión de riesgos</t>
   </si>
   <si>
     <t>PR0007</t>
@@ -257,7 +260,7 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0010/02_PRODUCTOS/PRODUCTO 07-BITACORA DE SOCIALIZACION/07_BITACORA SOCIALIZACION V4.pdf</t>
   </si>
   <si>
-    <t>Este documento corresponde la entrega final del Contrato suscrito entre el FONDO DE ADAPTACIÓN y GEOGRAFÍA URBANA cuyo objeto es elaborar una propuesta para "Articular los planes de ordenamiento territorial, los planes de desarrollo y los planes de las autoridades ambientales de los once (11) municipios de los cuatro (4) departamentos de la región de La Mojana con el Plan de Acción del Fondo de Adaptación que formulará la Coordinación Técnica". El documento presenta de manera detallada el proceso tal como se adelantó para acceder a la región denominada núcleo de la Mojana representada por las instituciones que disponen la información atinente al proyecto, tales como Planes de Ordenamiento Territorial, Planes Municipales y Departamentales de Desarrollo, Planes Municipales y Departamentales sobre la Gestión del Riesgo, así como los planes de gestión ambiental y Planes de Acción de las autoridades regionales. El documento da cuenta de la metodología que se implementó, el cronograma, las actividades realizadas en el trabajo de campo, así como una propuesta de talleres  a realizar en la región.</t>
+    <t>Este documento corresponde la entrega final del Contrato suscrito entre el FONDO DE ADAPTACIÓN y GEOGRAFÍA URBANA cuyo objeto es elaborar una propuesta para "Articular los planes de ordenamiento territorial, los planes de desarrollo y los planes de las autoridades ambientales de los once (11) municipios de los cuatro (4) departamentos de la región de La Mojana con el plan de acción del Fondo de Adaptación que formulará la coordinación técnica". El documento presenta de manera detallada el proceso tal como se adelantó para acceder a la región denominada núcleo de la Mojana representada por las instituciones que disponen la información atinente al proyecto, tales como Planes de Ordenamiento Territorial, planes municipales y departamentales de desarrollo, planes municipales y departamentales sobre la gestión del riesgo, así como los planes de gestión ambiental y planes de acción de las autoridades regionales. El documento da cuenta de la metodología que se implementó, el cronograma, las actividades realizadas en el trabajo de campo, así como una propuesta de talleres  a realizar en la región.</t>
   </si>
   <si>
     <t>Este entregable final está dividido en seis partes. Una primera parte introductoria que explica el contenido del documento y dónde se llevó a cabo el proyecto “DIAGNÓSTICO DE LOS INSTRUMENTOS DE PLANEACIÓN TERRITORIAL Y AMBIENTAL DEL NÚCLEO DE LA REGIÓN DE LA MOJANA”. El segundo capítulo expone la metodología que se iba a realizar en las salidas de campo. El tercer capítulo da cuenta del cronograma desde el mes de julio hasta enero. El cuarto capítulo expone cómo se iba a realizar el mapa de actores y cuáles eran los actores predominantes en la región de la Mojana. El quinto capítulo es el más largo, ya que expone las actividades realizadas en el trabajo de campo: 14 visitas realizadas en 4 meses y 13 reuniones de trabajo. El capítulo de se divide en 3 partes: (1) Trabajo de campo, (2) Reuniones de trabajo, (3) Talleres finales. En la parte del trabajo de campo se describen las 14 visitas realizadas. Estas vistas están documentadas de manera detallada con la fecha, el lugar, el objetivo de la visita y los participantes. La mayoría de estas visitas están narradas en primera persona, algunas describen el paisaje, los recorridos, características del transporte, de los aspectos del municipio, de algunas actividades que se llevan a cabo en la región, del número de habitantes de algunos sitios visitados, y demás información relevante de la región. Estas descripciones de las actividades en campo están acompañadas de fotos. Las reuniones están documentadas con los participantes y el objetivo de la reunión. Y la última parte del capítulo relacionado con los talleres finales, es una propuesta de talleres que se realizarían en enero con diferentes actores de la región con el objetivo de presentarles el resultado del diagnóstico y la evaluación de los diferentes instrumentos de planeación. Estas propuestas de talleres contienen una agenda tentativa, el desarrollo del taller y la socialización de conflictos. El capítulo 6 son los anexos referentes a las actas de asistencias y afiches de información general.</t>
@@ -270,25 +273,41 @@
     <t xml:space="preserve">Es un documento confuso, ya que algunos capítulos están escritos en futuro y otros en pasado. Las narraciones de algunas actividades en campo pueden ser importantes para el análisis de variables y la toma de decisiones, ya que tienen información de los municipios. Sin embargo, esta información está limitada. </t>
   </si>
   <si>
-    <t xml:space="preserve">Mapa de actores, trabajo de campo, socialización, instituciones. </t>
+    <t>Mapa de actores, trabajo de campo, socialización, instituciones</t>
+  </si>
+  <si>
+    <t>PR0008</t>
+  </si>
+  <si>
+    <t>Z_00_ATLAS COMPLETO1</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0010/02_PRODUCTOS/PRODUCTO 06-GEODATABASE/ATLAS/Z_00_ATLAS COMPLETO1.pdf</t>
+  </si>
+  <si>
+    <t>Documento resumen con los mapas de Cobertura de suelo, topografía, cartografía base, integración de amenazas,  suelos de protección, infraestructura, amenaza por inundación entre otros que se pueden generar con la base de datos espacial (GDB). Son resultado del estudio Diagnóstico de los instrumentos de planeación territorial y ambientales del nucleo de la región de La Mojana y sus municipios.</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>El documento contiene los mapas en temas de Cobertura de suelo, topografía, cartografía base, integración de amenazas,  suelos de protección, infraestructura, amenaza por inundación a nivel de escala municipal</t>
+  </si>
+  <si>
+    <t>Los mapas se pueden recrear con la GDB, sin embargo es un PDF con un buen resumen de mapas de fácil visualización.</t>
+  </si>
+  <si>
+    <t>Cobertura de suelo, topografía, cartografía base, amenazas,  suelos de protección, infraestructura, amenaza por inundación, mapa, municipios, La Mojana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,16 +318,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -370,35 +403,454 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -406,329 +858,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -745,28 +876,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:R9" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="Código de proyecto" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="Código de producto" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="Nombre del producto" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="Directorio" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="Año" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="Autor 1" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="Autor 2" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="Autor 3" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="Autor 4" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="Autor 5" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="Descripción" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="Tipo de producto" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="Formato" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="Resumen" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="Contiene Anexos" dataDxfId="5" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="Anexos" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="Observaciones" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="Palabras Clave" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1033,30 +1184,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="10" width="3.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="39" customWidth="1"/>
+    <col min="18" max="18" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1135,51 +1287,51 @@
         <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="P2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E3" s="3">
         <v>2014</v>
@@ -1191,51 +1343,51 @@
         <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="57.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="6" t="s">
         <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E4" s="3">
         <v>2014</v>
@@ -1247,51 +1399,51 @@
         <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="Q4" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="R4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3">
         <v>2014</v>
@@ -1303,51 +1455,51 @@
         <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="5" t="s">
+      <c r="M5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="O5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="R5" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3">
         <v>2014</v>
@@ -1359,51 +1511,51 @@
         <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>59</v>
+        <v>24</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="34.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="3">
         <v>2014</v>
@@ -1415,51 +1567,51 @@
         <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="Q7" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="R7" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="36.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="3">
         <v>2014</v>
@@ -1471,41 +1623,97 @@
         <v>23</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2014</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>76</v>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1514,6 +1722,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1657,37 +1874,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
--- a/P0010/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0010/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0010\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0010/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{FAA3F8E3-8D9B-46DA-8A6F-EE5BDBC0C949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{905C35BE-8AAE-47F4-9FD7-D631B255DF9B}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{FAA3F8E3-8D9B-46DA-8A6F-EE5BDBC0C949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A703486F-D7CE-4241-AEE8-8B3FDBC71F5B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,14 +421,14 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,13 +801,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -827,6 +820,13 @@
         <patternFill patternType="none"/>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:R9" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1187,10 +1187,10 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -1208,7 +1208,7 @@
     <col min="18" max="18" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="57.75" customHeight="1">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="34.5" customHeight="1">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="36.75" customHeight="1">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1722,15 +1722,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1874,10 +1865,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>